--- a/aichan/505282235001850137_2021-03-23_23-13-08.xlsx
+++ b/aichan/505282235001850137_2021-03-23_23-13-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:48:59</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95068287037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -605,10 +619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:49:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44327.82592592593</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:29:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44325.39519675926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:38:38</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44315.69349537037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-24 20:45:26</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44310.86488425926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,10 +913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:38:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44310.48510416667</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -975,10 +979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:55:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44308.45523148148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1051,10 +1053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:09:54</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44307.46520833333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1128,10 +1128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:27:40</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44305.01921296296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1212,10 +1210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:44:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44304.94738425926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1284,10 +1280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:26:06</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44302.30979166667</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1363,10 +1357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:16:30</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44302.09479166667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1449,10 +1441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:30:08</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44293.02092592593</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1517,10 +1507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:18:48</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44288.55472222222</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1584,10 +1572,8 @@
           <t>4346457531</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-01 10:25:13</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44287.43417824074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1659,10 +1645,8 @@
           <t>4313747876</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:23</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.54748842592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1734,10 +1718,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:53:08</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.45356481482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1801,10 +1783,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:13:38</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.42613425926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1876,10 +1856,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 08:40:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.36168981482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1943,10 +1921,8 @@
           <t>4305967236</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:23:52</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44279.89157407408</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2018,10 +1994,8 @@
           <t>4310545501</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44279.78487268519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2089,10 +2063,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:49:40</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44279.28449074074</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2168,10 +2140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:05:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44279.04568287037</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2243,10 +2213,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:10:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44279.00709490741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2318,10 +2286,8 @@
           <t>4307688488</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:39:52</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44278.98601851852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2397,10 +2363,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:08:58</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44278.96456018519</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2476,10 +2440,8 @@
           <t>4307366242</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:38:10</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44278.9431712963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2543,10 +2505,8 @@
           <t>4307274578</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:22:44</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44278.9324537037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2614,10 +2574,8 @@
           <t>4306288015</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:56:05</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44278.91394675926</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2685,10 +2643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:47:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44278.90785879629</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
@@ -2756,10 +2712,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:07:04</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44278.8799074074</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2823,10 +2777,8 @@
           <t>4306747597</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:31:22</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44278.85511574074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2886,10 +2838,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:26:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44278.851875</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2965,10 +2915,8 @@
           <t>4306714998</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:25:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44278.85103009259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3028,10 +2976,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:45:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44278.82322916666</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3107,10 +3053,8 @@
           <t>4306462557</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:28:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44278.81127314815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3174,10 +3118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:27:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44278.81081018518</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3241,10 +3183,8 @@
           <t>4306448398</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:25:25</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44278.80931712963</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3316,10 +3256,8 @@
           <t>4306440488</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:22:17</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44278.8071412037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3383,10 +3321,8 @@
           <t>4306437590</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:21:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44278.80675925926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3454,10 +3390,8 @@
           <t>4306421836</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:17:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44278.8041087963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3526,10 +3460,8 @@
           <t>4306381828</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:10:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44278.79861111111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3597,10 +3529,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:08:54</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44278.79784722222</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3672,10 +3602,8 @@
           <t>4306330228</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:57:27</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44278.78989583333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3739,10 +3667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:51:25</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44278.78570601852</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3810,10 +3736,8 @@
           <t>4306288015</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:49:43</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44278.78452546296</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3877,10 +3801,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:46:34</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44278.78233796296</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3957,10 +3879,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:37:02</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44278.77571759259</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4028,10 +3948,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:36:51</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44278.77559027778</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4095,10 +4013,8 @@
           <t>4306222375</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:35:07</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44278.77438657408</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4162,10 +4078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:22:04</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44278.76532407408</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4241,10 +4155,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:18:48</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44278.76305555556</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4322,10 +4234,8 @@
           <t>4305971240</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:13:19</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44278.75924768519</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4401,10 +4311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:12:07</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44278.75841435185</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4480,10 +4388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:11:30</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44278.75798611111</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4547,10 +4453,8 @@
           <t>4305971240</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:09:13</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44278.75640046296</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4622,10 +4526,8 @@
           <t>4305971240</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:09:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44278.75625</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4697,10 +4599,8 @@
           <t>4305741624</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:54:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44278.74643518519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4772,10 +4672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:43:28</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44278.73851851852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4839,10 +4737,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:41:37</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44278.7372337963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4918,10 +4814,8 @@
           <t>4305971240</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:38:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44278.73528935185</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4997,10 +4891,8 @@
           <t>4305967236</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:38:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44278.73502314815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5076,10 +4968,8 @@
           <t>4305946800</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:33:01</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44278.73126157407</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5143,10 +5033,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:28:51</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44278.72836805556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5214,10 +5102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:24:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44278.72559027778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5285,10 +5171,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:22:06</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44278.72368055556</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5365,10 +5249,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:21:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44278.72344907407</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5444,10 +5326,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:21:41</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44278.7233912037</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5523,10 +5403,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:21:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44278.72324074074</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5602,10 +5480,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:20:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44278.72274305556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5682,10 +5558,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:15:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44278.71917824074</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5761,10 +5635,8 @@
           <t>4305881325</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:15:24</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44278.71902777778</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5840,10 +5712,8 @@
           <t>4305859088</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:48</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44278.71583333334</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5911,10 +5781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:07</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44278.7153587963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5990,10 +5858,8 @@
           <t>4305856185</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:08:23</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44278.7141550926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6065,10 +5931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:07:36</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44278.71361111111</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6140,10 +6004,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:03:57</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44278.71107638889</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6220,10 +6082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:03:10</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44278.71053240741</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6295,10 +6155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:59:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44278.70792824074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6374,10 +6232,8 @@
           <t>4305781969</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:47:52</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44278.6999074074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6449,10 +6305,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:45:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44278.6984837963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6524,10 +6378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:44:29</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44278.69755787037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6587,10 +6439,8 @@
           <t>4305754230</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:40:52</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44278.6950462963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6658,10 +6508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:40:26</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44278.69474537037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6737,10 +6585,8 @@
           <t>4305741624</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:36:29</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44278.69200231481</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6816,10 +6662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:33:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44278.68979166666</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6891,10 +6735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:29:20</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44278.68703703704</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6970,10 +6812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:28:29</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44278.68644675926</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -7045,10 +6885,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:21:34</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44278.68164351852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7112,10 +6950,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:19:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44278.68006944445</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7179,10 +7015,8 @@
           <t>4305681688</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:43</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44278.67896990741</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7250,10 +7084,8 @@
           <t>4305594582</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:16:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44278.67846064815</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7321,10 +7153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:15:19</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44278.67730324074</v>
       </c>
       <c r="I94" t="n">
         <v>7</v>
@@ -7396,10 +7226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:14:56</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44278.67703703704</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7475,10 +7303,8 @@
           <t>4305668479</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:14:41</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44278.67686342593</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7546,10 +7372,8 @@
           <t>4305597152</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:11:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44278.67439814815</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7617,10 +7441,8 @@
           <t>4305658317</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:10:11</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44278.67373842592</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7697,10 +7519,8 @@
           <t>4305653494</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:09:54</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44278.67354166666</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7768,10 +7588,8 @@
           <t>4305653415</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:09:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44278.67349537037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7847,10 +7665,8 @@
           <t>4305648904</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:07:35</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44278.67193287037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7922,10 +7738,8 @@
           <t>4305639418</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:05:57</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44278.67079861111</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8001,10 +7815,8 @@
           <t>4305637233</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:03:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44278.66932870371</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8080,10 +7892,8 @@
           <t>4305634519</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:03:15</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44278.66892361111</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8155,10 +7965,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:02:29</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44278.6683912037</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8226,10 +8034,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:01:25</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44278.66765046296</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8297,10 +8103,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:58:33</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44278.66565972222</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8368,10 +8172,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:57:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44278.66523148148</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8448,10 +8250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:57:34</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44278.66497685185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8515,10 +8315,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:54:11</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44278.66262731481</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8590,10 +8388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:54:05</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44278.66255787037</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8661,10 +8457,8 @@
           <t>4305615349</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:54:00</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44278.6625</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8732,10 +8526,8 @@
           <t>4305604282</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:52:55</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44278.66174768518</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8799,10 +8591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:52:31</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44278.66146990741</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8870,10 +8660,8 @@
           <t>4305606007</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:52:17</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44278.66130787037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8941,10 +8729,8 @@
           <t>4305605163</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:51:25</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44278.66070601852</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9016,10 +8802,8 @@
           <t>4305594582</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:50:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44278.66027777778</v>
       </c>
       <c r="I117" t="n">
         <v>7</v>
@@ -9091,10 +8875,8 @@
           <t>4305602253</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:50:47</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44278.6602662037</v>
       </c>
       <c r="I118" t="n">
         <v>7</v>
@@ -9162,10 +8944,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:49:10</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44278.65914351852</v>
       </c>
       <c r="I119" t="n">
         <v>11</v>
@@ -9237,10 +9017,8 @@
           <t>4305597152</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:48:53</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44278.65894675926</v>
       </c>
       <c r="I120" t="n">
         <v>20</v>
@@ -9312,10 +9090,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:44:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44278.65607638889</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9387,10 +9163,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:42:15</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44278.65434027778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9467,10 +9241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:42:12</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44278.65430555555</v>
       </c>
       <c r="I123" t="n">
         <v>139</v>
@@ -9538,10 +9310,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:40:50</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44278.65335648148</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9609,10 +9379,8 @@
           <t>4305504529</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:39:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44278.6527199074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9688,10 +9456,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:39:25</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44278.65237268519</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9759,10 +9525,8 @@
           <t>4305571344</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:39:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44278.65219907407</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9834,10 +9598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:48</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44278.65194444444</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9909,10 +9671,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44278.65194444444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9990,10 +9750,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:48</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44278.65194444444</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10061,10 +9819,8 @@
           <t>4305563047</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:13</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44278.65153935185</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10140,10 +9896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:37:25</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44278.65098379629</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10215,10 +9969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:35:30</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44278.64965277778</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10286,10 +10038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:35:18</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44278.64951388889</v>
       </c>
       <c r="I134" t="n">
         <v>30</v>
@@ -10361,10 +10111,8 @@
           <t>4305549309</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:34:12</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44278.64875</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10436,10 +10184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44278.64790509259</v>
       </c>
       <c r="I136" t="n">
         <v>60</v>
@@ -10515,10 +10261,8 @@
           <t>4305544151</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:24</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44278.64680555555</v>
       </c>
       <c r="I137" t="n">
         <v>27</v>
@@ -10595,10 +10339,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:07</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44278.6466087963</v>
       </c>
       <c r="I138" t="n">
         <v>11</v>
@@ -10675,10 +10417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:30:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44278.64642361111</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -10754,10 +10494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:30:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44278.64619212963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10829,10 +10567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:30:21</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44278.64607638889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10900,10 +10636,8 @@
           <t>4305545101</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:29:42</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44278.645625</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10975,10 +10709,8 @@
           <t>4305532050</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:22</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44278.64331018519</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11046,10 +10778,8 @@
           <t>4305531823</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:08</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44278.64314814815</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11125,10 +10855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:44</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44278.64217592592</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -11196,10 +10924,8 @@
           <t>4305524319</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:39</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44278.64211805556</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11267,10 +10993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44278.64189814815</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11350,10 +11074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:11</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44278.64179398148</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11421,10 +11143,8 @@
           <t>4305527034</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:47</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44278.6415162037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11488,10 +11208,8 @@
           <t>4305523291</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44278.64137731482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11571,10 +11289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:34</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44278.64136574074</v>
       </c>
       <c r="I151" t="n">
         <v>366</v>
@@ -11638,10 +11354,8 @@
           <t>4305523216</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44278.64131944445</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11717,10 +11431,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:22:43</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44278.64077546296</v>
       </c>
       <c r="I153" t="n">
         <v>13</v>
@@ -11796,10 +11508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:22:15</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44278.64045138889</v>
       </c>
       <c r="I154" t="n">
         <v>6</v>
@@ -11867,10 +11577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:19</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44278.6391087963</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11938,10 +11646,8 @@
           <t>4305516050</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:55</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44278.63883101852</v>
       </c>
       <c r="I156" t="n">
         <v>46</v>
@@ -12009,10 +11715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:22</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44278.63844907407</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12088,10 +11792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44278.63841435185</v>
       </c>
       <c r="I158" t="n">
         <v>2</v>
@@ -12159,10 +11861,8 @@
           <t>4305512671</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:08</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44278.63828703704</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12234,10 +11934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:39</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44278.63795138889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12309,10 +12007,8 @@
           <t>4305504529</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:17</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44278.63769675926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12388,10 +12084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:04</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44278.6375462963</v>
       </c>
       <c r="I162" t="n">
         <v>8</v>
@@ -12468,10 +12162,8 @@
           <t>4305511315</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:39</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44278.63725694444</v>
       </c>
       <c r="I163" t="n">
         <v>4</v>
@@ -12547,10 +12239,8 @@
           <t>4305503569</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:09</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44278.63690972222</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12626,10 +12316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:06</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44278.636875</v>
       </c>
       <c r="I165" t="n">
         <v>750</v>
@@ -12705,10 +12393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:54</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44278.63673611111</v>
       </c>
       <c r="I166" t="n">
         <v>109</v>
@@ -12772,10 +12458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:44</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44278.63662037037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12847,10 +12531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44278.63648148148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12926,10 +12608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:43</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44278.63591435185</v>
       </c>
       <c r="I169" t="n">
         <v>44</v>
@@ -12997,10 +12677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:27</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44278.63572916666</v>
       </c>
       <c r="I170" t="n">
         <v>35</v>
@@ -13076,10 +12754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:10</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44278.63553240741</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13151,10 +12827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44278.63539351852</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13218,10 +12892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:22</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44278.63497685185</v>
       </c>
       <c r="I173" t="n">
         <v>29</v>
@@ -13289,10 +12961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:18</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44278.63493055556</v>
       </c>
       <c r="I174" t="n">
         <v>12</v>
@@ -13356,10 +13026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44278.63446759259</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13423,10 +13091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:33</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44278.63440972222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13490,10 +13156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:30</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44278.634375</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13557,10 +13221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:24</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44278.63430555556</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
